--- a/unprocessed_files/Lines.xlsx
+++ b/unprocessed_files/Lines.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adko8\OneDrive\Desktop\TARS\Unprocessed Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adko8\OneDrive\Desktop\TARS\unprocessed_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF68E7C0-8408-427C-8263-BC861D21BC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8620E1-1A1A-432D-8D5E-BB830DA77A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{411462C6-0553-4045-81F6-2A96E886D10C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{411462C6-0553-4045-81F6-2A96E886D10C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
-  <si>
-    <t>Line ID</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>May the Force be with you.</t>
   </si>
@@ -51,12 +44,6 @@
     <t>I'll be back.</t>
   </si>
   <si>
-    <t>Voice ID</t>
-  </si>
-  <si>
-    <t>Voice Name</t>
-  </si>
-  <si>
     <t>t0jbNlBVZ17f02VDIeMI</t>
   </si>
   <si>
@@ -69,139 +56,16 @@
     <t>Giovanni</t>
   </si>
   <si>
-    <t>Rachel; 21m00Tcm4TlvDq8ikWAM</t>
-  </si>
-  <si>
-    <t>Drew; 29vD33N1CtxCmqQRPOHJ</t>
-  </si>
-  <si>
-    <t>Clyde; 2EiwWnXFnvU5JabPnv8n</t>
-  </si>
-  <si>
-    <t>Paul; 5Q0t7uMcjvnagumLfvZi</t>
-  </si>
-  <si>
-    <t>Domi; AZnzlk1XvdvUeBnXmlld</t>
-  </si>
-  <si>
-    <t>Dave; CYw3kZ02Hs0563khs1Fj</t>
-  </si>
-  <si>
-    <t>Fin; D38z5RcWu1voky8WS1ja</t>
-  </si>
-  <si>
-    <t>Sarah; EXAVITQu4vr4xnSDxMaL</t>
-  </si>
-  <si>
-    <t>Antoni; ErXwobaYiN019PkySvjV</t>
-  </si>
-  <si>
-    <t>Thomas; GBv7mTt0atIp3Br8iCZE</t>
-  </si>
-  <si>
-    <t>Charlie; IKne3meq5aSn9XLyUdCD</t>
-  </si>
-  <si>
-    <t>George; JBFqnCBsd6RMkjVDRZzb</t>
-  </si>
-  <si>
-    <t>Emily; LcfcDJNUP1GQjkzn1xUU</t>
-  </si>
-  <si>
-    <t>Elli; MF3mGyEYCl7XYWbV9V6O</t>
-  </si>
-  <si>
-    <t>Callum; N2lVS1w4EtoT3dr4eOWO</t>
-  </si>
-  <si>
-    <t>Patrick; ODq5zmih8GrVes37Dizd</t>
-  </si>
-  <si>
-    <t>Harry; SOYHLrjzK2X1ezoPC6cr</t>
-  </si>
-  <si>
-    <t>Liam; TX3LPaxmHKxFdv7VOQHJ</t>
-  </si>
-  <si>
-    <t>Dorothy; ThT5KcBeYPX3keUQqHPh</t>
-  </si>
-  <si>
-    <t>Josh; TxGEqnHWrfWFTfGW9XjX</t>
-  </si>
-  <si>
-    <t>Arnold; VR6AewLTigWG4xSOukaG</t>
-  </si>
-  <si>
-    <t>Charlotte; XB0fDUnXU5powFXDhCwa</t>
-  </si>
-  <si>
-    <t>Alice; Xb7hH8MSUJpSbSDYk0k2</t>
-  </si>
-  <si>
-    <t>Matilda; XrExE9yKIg1WjnnlVkGX</t>
-  </si>
-  <si>
-    <t>James; ZQe5CZNOzWyzPSCn5a3c</t>
-  </si>
-  <si>
-    <t>Joseph; Zlb1dXrM653N07WRdFW3</t>
-  </si>
-  <si>
-    <t>Jeremy; bVMeCyTHy58xNoL34h3p</t>
-  </si>
-  <si>
-    <t>Michael; flq6f7yk4E4fJM5XTYuZ</t>
-  </si>
-  <si>
-    <t>Ethan; g5CIjZEefAph4nQFvHAz</t>
-  </si>
-  <si>
-    <t>Chris; iP95p4xoKVk53GoZ742B</t>
-  </si>
-  <si>
-    <t>Gigi; jBpfuIE2acCO8z3wKNLl</t>
-  </si>
-  <si>
-    <t>Freya; jsCqWAovK2LkecY7zXl4</t>
-  </si>
-  <si>
-    <t>Brian; nPczCjzI2devNBz1zQrb</t>
-  </si>
-  <si>
-    <t>Grace; oWAxZDx7w5VEj9dCyTzz</t>
-  </si>
-  <si>
-    <t>Daniel; onwK4e9ZLuTAKqWW03F9</t>
-  </si>
-  <si>
-    <t>Lily; pFZP5JQG7iQjIQuC4Bku</t>
-  </si>
-  <si>
-    <t>Serena; pMsXgVXv3BLzUgSXRplE</t>
-  </si>
-  <si>
-    <t>Adam; pNInz6obpgDQGcFmaJgB</t>
-  </si>
-  <si>
-    <t>Nicole; piTKgcLEGmPE4e6mEKli</t>
-  </si>
-  <si>
-    <t>Bill; pqHfZKP75CvOlQylNhV4</t>
-  </si>
-  <si>
-    <t>Jessie; t0jbNlBVZ17f02VDIeMI</t>
-  </si>
-  <si>
-    <t>Sam; yoZ06aMxZJJ28mfd3POQ</t>
-  </si>
-  <si>
-    <t>Glinda; z9fAnlkpzviPz146aGWa</t>
-  </si>
-  <si>
-    <t>Giovanni; zcAOhNBS3c14rBihAFp1</t>
-  </si>
-  <si>
-    <t>Mimi; zrHiDhphv9ZnVXBqCLjz</t>
+    <t>line_id</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>voice_id</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -575,28 +439,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE0B8FF-D7DA-43E3-8589-72A8DE89571B}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -607,10 +471,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -618,256 +482,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF885BB-0FE2-4189-ACD4-3E1D085BC8D1}">
-  <dimension ref="A2:A46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/unprocessed_files/Lines.xlsx
+++ b/unprocessed_files/Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adko8\OneDrive\Desktop\TARS\unprocessed_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8620E1-1A1A-432D-8D5E-BB830DA77A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021F7737-CA3A-4C48-BDE9-1B5B5B714DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{411462C6-0553-4045-81F6-2A96E886D10C}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>May the Force be with you.</t>
   </si>
   <si>
-    <t>I'll be back.</t>
-  </si>
-  <si>
     <t>t0jbNlBVZ17f02VDIeMI</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>Hello Ryan</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -451,16 +451,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -468,10 +468,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -482,13 +482,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/unprocessed_files/Lines.xlsx
+++ b/unprocessed_files/Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adko8\OneDrive\Desktop\TARS\unprocessed_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021F7737-CA3A-4C48-BDE9-1B5B5B714DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B08F77-D885-4EB0-9B67-4C787616C70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{411462C6-0553-4045-81F6-2A96E886D10C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>May the Force be with you.</t>
   </si>
@@ -66,6 +66,33 @@
   </si>
   <si>
     <t>Hello Ryan</t>
+  </si>
+  <si>
+    <t>LcfcDJNUP1GQjkzn1xUU</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>I'm gonna make him an offer he can't refuse.</t>
+  </si>
+  <si>
+    <t>ODq5zmih8GrVes37Dizd</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Toto, I've a feeling we're not in Kansas anymore.</t>
+  </si>
+  <si>
+    <t>XB0fDUnXU5powFXDhCwa</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>There's no crying in baseball!</t>
   </si>
 </sst>
 </file>
@@ -437,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE0B8FF-D7DA-43E3-8589-72A8DE89571B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -491,6 +518,48 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/unprocessed_files/Lines.xlsx
+++ b/unprocessed_files/Lines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adko8\OneDrive\Desktop\TARS\unprocessed_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B08F77-D885-4EB0-9B67-4C787616C70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F742476B-1A1D-482B-B9B5-4E399C8B5F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{411462C6-0553-4045-81F6-2A96E886D10C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>May the Force be with you.</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>There's no crying in baseball!</t>
+  </si>
+  <si>
+    <t>I am serious. And don't call me Shirley.</t>
+  </si>
+  <si>
+    <t>You talking to me?</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE0B8FF-D7DA-43E3-8589-72A8DE89571B}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,7 +566,36 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>